--- a/report_ca_nhan/CẦN THƠ/NV-35 Lâm Thị Hường 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-35 Lâm Thị Hường 7-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3642857.142857143</v>
+        <v>4071428.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4237857.142857143</v>
+        <v>4736428.571428571</v>
       </c>
     </row>
     <row r="29">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4237857.142857143</v>
+        <v>4736428.571428571</v>
       </c>
     </row>
   </sheetData>
